--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1288158.3552224</v>
+        <v>1285906.275511193</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283199</v>
+        <v>416855.1052283196</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>3.18258553388119</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>373.5689935409309</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -835,7 +835,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>80.00124118081848</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>160.2314026855075</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>308.3664578818482</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>28.01314796823099</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1066,13 +1066,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>7.906645607738021</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,7 +1145,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>38.93487362168472</v>
+        <v>49.86843706433064</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1297,13 +1297,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>77.31354443380458</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>85.47654389282634</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>240.5320234084492</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>170.1899010721185</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1765,16 +1765,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1813,10 +1813,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>172.6684446854161</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>188.6400272368778</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1847,10 +1847,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -2005,16 +2005,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>4.019807611472022</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060384</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>118.1224962516653</v>
       </c>
       <c r="C22" t="n">
-        <v>22.65115569188744</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2254,7 +2254,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2381,7 +2381,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>156.5238857907026</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>196.9607874088664</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,13 +2722,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>4.019807611472036</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>101.5730368512059</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,16 +3004,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>185.0663491738889</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>119.4946167489004</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3199,13 +3199,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,13 +3235,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>182.3203821379245</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>94.91529601901398</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>35.63623515385353</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>245.8796921214428</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571659</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>25.73194049497363</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,10 +3952,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>144.4286493356916</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>23.05950344416414</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1681.836054204827</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
         <v>934.5673701373257</v>
@@ -4325,10 +4325,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4340,40 +4340,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
         <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.975386180638</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1681.836054204827</v>
+        <v>1321.167210201447</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556937</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609103</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686071</v>
+        <v>936.5735814686082</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064747</v>
+        <v>846.0716871064756</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080118</v>
+        <v>827.0643955080136</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986292</v>
+        <v>920.741664998631</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978976</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068412</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201685</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695165</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507436</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547492</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341959</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577005</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>772.5608581015648</v>
+        <v>2473.40861130691</v>
       </c>
       <c r="C4" t="n">
-        <v>772.5608581015648</v>
+        <v>2304.472428379003</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>2154.355788966668</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>2006.442695384274</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>1859.552747886364</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>1691.849911261083</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>1545.632724478941</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T4" t="n">
-        <v>1765.44464638596</v>
+        <v>3103.839206178697</v>
       </c>
       <c r="U4" t="n">
-        <v>1765.44464638596</v>
+        <v>3103.839206178697</v>
       </c>
       <c r="V4" t="n">
-        <v>1510.760158180073</v>
+        <v>3103.839206178697</v>
       </c>
       <c r="W4" t="n">
-        <v>1221.342988143112</v>
+        <v>3103.839206178697</v>
       </c>
       <c r="X4" t="n">
-        <v>993.3534372450949</v>
+        <v>2875.84965528068</v>
       </c>
       <c r="Y4" t="n">
-        <v>772.5608581015648</v>
+        <v>2655.05707613715</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1514.348043559525</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C5" t="n">
-        <v>1514.348043559525</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>1514.348043559525</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>1128.55979096128</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>717.5738861716729</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4562,19 +4562,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4589,28 +4589,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3297.309712550352</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3091.331964934574</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410101</v>
+        <v>3091.331964934574</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066531</v>
+        <v>3091.331964934574</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796416</v>
+        <v>3091.331964934574</v>
       </c>
       <c r="X5" t="n">
-        <v>1904.487375535336</v>
+        <v>2717.866206673494</v>
       </c>
       <c r="Y5" t="n">
-        <v>1514.348043559525</v>
+        <v>2327.726874697682</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4641,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>785.680167749271</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>616.7439848213642</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>466.6273454090284</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>318.7142518266353</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>171.8243043287249</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4753,22 +4753,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1705.527932658019</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>1416.110762621058</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>1188.121211723041</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>967.3286325795108</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1969.42314369238</v>
+        <v>1611.504630229389</v>
       </c>
       <c r="C8" t="n">
-        <v>1600.460626751969</v>
+        <v>1611.504630229389</v>
       </c>
       <c r="D8" t="n">
-        <v>1242.194928145218</v>
+        <v>1253.238931622638</v>
       </c>
       <c r="E8" t="n">
-        <v>856.4066755469739</v>
+        <v>867.450679024394</v>
       </c>
       <c r="F8" t="n">
-        <v>445.4207707573664</v>
+        <v>456.4647742347865</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,19 +4799,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4823,7 +4823,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993394</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V8" t="n">
-        <v>3119.628073993394</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W8" t="n">
-        <v>3119.628073993394</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X8" t="n">
-        <v>2746.162315732314</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="Y8" t="n">
-        <v>2356.022983756502</v>
+        <v>1998.104470293511</v>
       </c>
     </row>
     <row r="9">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>463.6594280995014</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>294.7232451715945</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>144.6066057592588</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4993,19 +4993,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1840.954604762406</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>1586.270116556519</v>
       </c>
       <c r="W10" t="n">
-        <v>1094.090022971289</v>
+        <v>1296.852946519558</v>
       </c>
       <c r="X10" t="n">
-        <v>866.1004720732712</v>
+        <v>1068.863395621541</v>
       </c>
       <c r="Y10" t="n">
-        <v>645.3078929297411</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="11">
@@ -5021,10 +5021,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5033,10 +5033,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5045,7 +5045,7 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5060,7 +5060,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,25 +5112,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5191,10 +5191,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5221,25 +5221,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1975.033022579363</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V13" t="n">
-        <v>1720.348534373476</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W13" t="n">
-        <v>1430.931364336515</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X13" t="n">
-        <v>1202.941813438498</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y13" t="n">
         <v>1031.03282245656</v>
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611463</v>
@@ -5270,13 +5270,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5297,31 +5297,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>726.955532171245</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="C16" t="n">
-        <v>558.0193492433381</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D16" t="n">
-        <v>407.9027098310023</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>2022.649975098258</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1733.574748442456</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1478.890260236569</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.139029956954</v>
+        <v>1189.473090199608</v>
       </c>
       <c r="X16" t="n">
-        <v>1099.149479058937</v>
+        <v>961.4835393015907</v>
       </c>
       <c r="Y16" t="n">
-        <v>908.6039970014847</v>
+        <v>740.6909601580605</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5507,25 +5507,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,31 +5534,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D19" t="n">
-        <v>407.9027098310023</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5698,25 +5698,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5726,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5768,34 +5768,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745237</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C22" t="n">
-        <v>558.0193492433381</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D22" t="n">
-        <v>407.9027098310023</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>1135.8961096909</v>
       </c>
     </row>
     <row r="23">
@@ -5981,52 +5981,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
         <v>3094.515198591809</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>931.4710609784063</v>
+        <v>718.550723916711</v>
       </c>
       <c r="C25" t="n">
-        <v>762.5348780504994</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="D25" t="n">
-        <v>612.4182386381636</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>2264.108249235165</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U25" t="n">
-        <v>2106.003314093041</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V25" t="n">
-        <v>1851.318825887154</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W25" t="n">
-        <v>1561.901655850193</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X25" t="n">
-        <v>1333.912104952176</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y25" t="n">
-        <v>1113.119525808646</v>
+        <v>900.1991887469508</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6200,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6242,34 +6242,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,25 +6297,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>265.0731740618515</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>97.87707477673149</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,61 +6449,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>762.5477693179085</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>593.6115863900017</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>593.6115863900017</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>445.6984928076085</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>445.6984928076085</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>278.5023935224885</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1688.043910473548</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6716,7 +6716,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852255</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>641.8461362382112</v>
+        <v>868.6673633290469</v>
       </c>
       <c r="C34" t="n">
-        <v>472.9099533103043</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D34" t="n">
-        <v>322.7933138979686</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E34" t="n">
-        <v>322.7933138979686</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6883,25 +6883,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>2043.199616443682</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1788.515128237795</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1499.097958200834</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>1271.108407302817</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>1050.315828159287</v>
       </c>
     </row>
     <row r="35">
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>788.0191461778176</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2351.089047197418</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2131.487582220359</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7163,7 +7163,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,10 +7306,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>948.5505208511906</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>779.6143379232838</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
         <v>779.6143379232838</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2410.966886455156</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2191.365421478097</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1902.290194822295</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="V40" t="n">
-        <v>1647.605706616408</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W40" t="n">
-        <v>1358.188536579448</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>1130.19898568143</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>1130.19898568143</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,37 +7421,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,25 +7482,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2420.971224494428</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2238.116390149333</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2018.514925172274</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>2018.514925172274</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7643,25 +7643,25 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>695.5020655703109</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C46" t="n">
-        <v>695.5020655703109</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D46" t="n">
-        <v>549.6145409888043</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>426.0170212122717</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>258.8209219271517</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>117.1090907693498</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
   </sheetData>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>45.99097492814184</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>48.39475227997627</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>44.7370056418722</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>29.94462611521701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23735,10 +23735,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E17" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23893,16 +23893,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>144.5956654067403</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23938,7 +23938,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>61.70948393027199</v>
       </c>
       <c r="C22" t="n">
-        <v>144.5956654067404</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24269,7 +24269,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>129.6605885985416</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>21.62386594322842</v>
       </c>
     </row>
     <row r="26">
@@ -24458,7 +24458,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24500,7 +24500,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24610,13 +24610,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>136.2749052347519</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24743,7 +24743,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24835,25 +24835,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>38.72167599501796</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,16 +24892,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>40.64330621514821</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24914,7 +24914,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>60.33736343303694</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,13 +25123,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>103.8640922513196</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25357,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>86.11098998263061</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25594,28 +25594,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>145.3900508477911</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>40.30478226780133</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>40.64330621514806</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,10 +25840,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26020,13 +26020,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>4.186823682520753</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>58.20633287440138</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>940417.4689437535</v>
+        <v>940417.4689437534</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>940417.4689437535</v>
+        <v>940417.4689437534</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>940417.4689437534</v>
+        <v>940417.4689437535</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>940417.4689437535</v>
+        <v>940417.4689437534</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>940417.4689437534</v>
+        <v>940417.4689437535</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>940417.4689437534</v>
+        <v>940417.4689437535</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>940417.4689437535</v>
+        <v>940417.4689437534</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>940417.4689437535</v>
+        <v>940417.4689437536</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>940417.4689437536</v>
+        <v>940417.4689437535</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>940417.4689437535</v>
+        <v>940417.4689437534</v>
       </c>
     </row>
   </sheetData>
@@ -26317,31 +26317,31 @@
         <v>492625.06191857</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
         <v>484287.9598140037</v>
       </c>
       <c r="F2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="G2" t="n">
-        <v>484287.9598140035</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="H2" t="n">
-        <v>484287.9598140034</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="I2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="J2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="K2" t="n">
+        <v>484287.9598140035</v>
+      </c>
+      <c r="L2" t="n">
         <v>484287.9598140036</v>
-      </c>
-      <c r="L2" t="n">
-        <v>484287.9598140037</v>
       </c>
       <c r="M2" t="n">
         <v>484287.9598140036</v>
@@ -26350,7 +26350,7 @@
         <v>484287.9598140036</v>
       </c>
       <c r="O2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="P2" t="n">
         <v>484287.9598140036</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818177</v>
+        <v>92183.89891818172</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818176</v>
+        <v>92183.89891818169</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818167</v>
+        <v>92183.89891818172</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26525,43 +26525,43 @@
         <v>292507.222438995</v>
       </c>
       <c r="D6" t="n">
-        <v>292507.2224389951</v>
+        <v>292507.222438995</v>
       </c>
       <c r="E6" t="n">
-        <v>44756.10403591102</v>
+        <v>44721.36611047546</v>
       </c>
       <c r="F6" t="n">
-        <v>370168.5658432661</v>
+        <v>370133.8279178303</v>
       </c>
       <c r="G6" t="n">
-        <v>370168.5658432659</v>
+        <v>370133.8279178303</v>
       </c>
       <c r="H6" t="n">
-        <v>370168.5658432659</v>
+        <v>370133.8279178303</v>
       </c>
       <c r="I6" t="n">
-        <v>370168.5658432661</v>
+        <v>370133.8279178303</v>
       </c>
       <c r="J6" t="n">
-        <v>152637.3634459887</v>
+        <v>152602.6255205529</v>
       </c>
       <c r="K6" t="n">
-        <v>370168.5658432661</v>
+        <v>370133.8279178302</v>
       </c>
       <c r="L6" t="n">
-        <v>370168.5658432661</v>
+        <v>370133.8279178303</v>
       </c>
       <c r="M6" t="n">
-        <v>285113.5379077542</v>
+        <v>285078.7999823186</v>
       </c>
       <c r="N6" t="n">
-        <v>370168.565843266</v>
+        <v>370133.8279178303</v>
       </c>
       <c r="O6" t="n">
-        <v>370168.5658432661</v>
+        <v>370133.8279178301</v>
       </c>
       <c r="P6" t="n">
-        <v>370168.565843266</v>
+        <v>370133.8279178303</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>362.0903062371264</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>12.66894511512265</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>16.35117922901961</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,16 +27588,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>59.31754659066166</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>102.5552677716053</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>81.17461381994485</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27786,13 +27786,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>158.1191626512902</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,13 +27825,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,7 +27865,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>371.9868520317688</v>
+        <v>361.0532885891228</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,13 +28017,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>69.12041821276459</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28065,7 +28065,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>200.7352943127866</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,10 +31835,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31853,7 +31853,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -32072,13 +32072,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32090,10 +32090,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32309,16 +32309,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,13 +32327,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32549,31 +32549,31 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>754.000239683233</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,31 +32786,31 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,7 +33023,7 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33260,31 +33260,31 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,31 +33497,31 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,31 +33734,31 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,31 +34199,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35483,10 +35483,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35501,7 +35501,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35738,10 +35738,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,13 +35975,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>622.6585275998997</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,22 +37856,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
